--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H2">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I2">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J2">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N2">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O2">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P2">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q2">
-        <v>790.0092394376451</v>
+        <v>312.6229450983915</v>
       </c>
       <c r="R2">
-        <v>7110.083154938806</v>
+        <v>2813.606505885524</v>
       </c>
       <c r="S2">
-        <v>0.02755572119158903</v>
+        <v>0.01377554512946679</v>
       </c>
       <c r="T2">
-        <v>0.03192033440657176</v>
+        <v>0.01543276833283744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H3">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I3">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J3">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P3">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q3">
-        <v>6439.969975227597</v>
+        <v>5090.303547346843</v>
       </c>
       <c r="R3">
-        <v>57959.72977704837</v>
+        <v>45812.73192612157</v>
       </c>
       <c r="S3">
-        <v>0.2246277742851422</v>
+        <v>0.2243012144137149</v>
       </c>
       <c r="T3">
-        <v>0.2602070772284578</v>
+        <v>0.2512850595956739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H4">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I4">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J4">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N4">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O4">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P4">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q4">
-        <v>1738.287911458785</v>
+        <v>1635.959853191785</v>
       </c>
       <c r="R4">
-        <v>15644.59120312907</v>
+        <v>14723.63867872607</v>
       </c>
       <c r="S4">
-        <v>0.06063192004306754</v>
+        <v>0.07208760310458498</v>
       </c>
       <c r="T4">
-        <v>0.07023554745785369</v>
+        <v>0.0807598732338264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H5">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I5">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J5">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N5">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O5">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P5">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q5">
-        <v>3749.392940809785</v>
+        <v>1941.416699976414</v>
       </c>
       <c r="R5">
-        <v>22496.35764485871</v>
+        <v>11648.50019985848</v>
       </c>
       <c r="S5">
-        <v>0.130779769852073</v>
+        <v>0.08554737835128655</v>
       </c>
       <c r="T5">
-        <v>0.1009961829285958</v>
+        <v>0.06389258932739357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H6">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I6">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J6">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N6">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O6">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P6">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q6">
-        <v>1656.428015812189</v>
+        <v>1521.740950372037</v>
       </c>
       <c r="R6">
-        <v>14907.8521423097</v>
+        <v>13695.66855334834</v>
       </c>
       <c r="S6">
-        <v>0.05777662627104042</v>
+        <v>0.06705461472320938</v>
       </c>
       <c r="T6">
-        <v>0.06692799722542041</v>
+        <v>0.07512140717084029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>393.820518</v>
       </c>
       <c r="I7">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J7">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N7">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O7">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P7">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q7">
-        <v>525.9040252898553</v>
+        <v>263.2905888958193</v>
       </c>
       <c r="R7">
-        <v>4733.136227608698</v>
+        <v>2369.615300062374</v>
       </c>
       <c r="S7">
-        <v>0.01834366482186625</v>
+        <v>0.01160174403819506</v>
       </c>
       <c r="T7">
-        <v>0.02124915952244296</v>
+        <v>0.01299745500563524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>393.820518</v>
       </c>
       <c r="I8">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J8">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>97.972082</v>
       </c>
       <c r="O8">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P8">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q8">
         <v>4287.046231419831</v>
@@ -948,10 +948,10 @@
         <v>38583.41608277847</v>
       </c>
       <c r="S8">
-        <v>0.1495332520067083</v>
+        <v>0.188906155990718</v>
       </c>
       <c r="T8">
-        <v>0.1732181631454897</v>
+        <v>0.2116319110897098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>393.820518</v>
       </c>
       <c r="I9">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J9">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N9">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O9">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P9">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q9">
-        <v>1157.166985033757</v>
+        <v>1377.803004898502</v>
       </c>
       <c r="R9">
-        <v>10414.50286530381</v>
+        <v>12400.22704408652</v>
       </c>
       <c r="S9">
-        <v>0.04036227580629285</v>
+        <v>0.06071207430894337</v>
       </c>
       <c r="T9">
-        <v>0.04675534827012279</v>
+        <v>0.06801584757700264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>393.820518</v>
       </c>
       <c r="I10">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J10">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N10">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O10">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P10">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q10">
-        <v>2495.946555471733</v>
+        <v>1635.058316234889</v>
       </c>
       <c r="R10">
-        <v>14975.6793328304</v>
+        <v>9810.349897409335</v>
       </c>
       <c r="S10">
-        <v>0.0870592443205402</v>
+        <v>0.07204787741192445</v>
       </c>
       <c r="T10">
-        <v>0.06723250373485203</v>
+        <v>0.05381024564525717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>393.820518</v>
       </c>
       <c r="I11">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J11">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N11">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O11">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P11">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q11">
-        <v>1102.673383590567</v>
+        <v>1281.608011351304</v>
       </c>
       <c r="R11">
-        <v>9924.060452315101</v>
+        <v>11534.47210216174</v>
       </c>
       <c r="S11">
-        <v>0.0384615252667637</v>
+        <v>0.05647329882680102</v>
       </c>
       <c r="T11">
-        <v>0.04455353353904033</v>
+        <v>0.06326713967353936</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H12">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I12">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J12">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N12">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O12">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P12">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q12">
-        <v>1.115590240382667</v>
+        <v>0.4936367799391111</v>
       </c>
       <c r="R12">
-        <v>10.040312163444</v>
+        <v>4.442731019451999</v>
       </c>
       <c r="S12">
-        <v>3.891206848406602E-05</v>
+        <v>2.175181267477247E-05</v>
       </c>
       <c r="T12">
-        <v>4.507543931900201E-05</v>
+        <v>2.436859541122451E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H13">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I13">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J13">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>97.972082</v>
       </c>
       <c r="O13">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P13">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q13">
-        <v>9.094029910125334</v>
+        <v>8.037673150427556</v>
       </c>
       <c r="R13">
-        <v>81.846269191128</v>
+        <v>72.339058353848</v>
       </c>
       <c r="S13">
-        <v>0.0003172020530921453</v>
+        <v>0.0003541753123231901</v>
       </c>
       <c r="T13">
-        <v>0.0003674444061454275</v>
+        <v>0.0003967832483523434</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H14">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I14">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J14">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N14">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O14">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P14">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q14">
-        <v>2.454676391353333</v>
+        <v>2.583207556262667</v>
       </c>
       <c r="R14">
-        <v>22.09208752218</v>
+        <v>23.248868006364</v>
       </c>
       <c r="S14">
-        <v>8.56197306044889E-05</v>
+        <v>0.0001138275127530269</v>
       </c>
       <c r="T14">
-        <v>9.918123404188318E-05</v>
+        <v>0.0001275211701396065</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H15">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I15">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J15">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N15">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O15">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P15">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q15">
-        <v>5.294604117674001</v>
+        <v>3.065528948922</v>
       </c>
       <c r="R15">
-        <v>31.767624706044</v>
+        <v>18.393173693532</v>
       </c>
       <c r="S15">
-        <v>0.0001846771247768167</v>
+        <v>0.000135080719581447</v>
       </c>
       <c r="T15">
-        <v>0.0001426190357865263</v>
+        <v>0.000100887451007859</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H16">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I16">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J16">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N16">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O16">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P16">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q16">
-        <v>2.339080147533334</v>
+        <v>2.402854027258666</v>
       </c>
       <c r="R16">
-        <v>21.0517213278</v>
+        <v>21.625686245328</v>
       </c>
       <c r="S16">
-        <v>8.15877045135456E-05</v>
+        <v>0.0001058803411937824</v>
       </c>
       <c r="T16">
-        <v>9.451056618804317E-05</v>
+        <v>0.00011861793934747</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H17">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I17">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J17">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N17">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O17">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P17">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q17">
-        <v>257.7570393083701</v>
+        <v>98.83650390656483</v>
       </c>
       <c r="R17">
-        <v>1546.54223585022</v>
+        <v>593.0190234393889</v>
       </c>
       <c r="S17">
-        <v>0.008990630432888131</v>
+        <v>0.004355172073422482</v>
       </c>
       <c r="T17">
-        <v>0.00694311786043395</v>
+        <v>0.003252738144641589</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H18">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I18">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J18">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>97.972082</v>
       </c>
       <c r="O18">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P18">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q18">
-        <v>2101.17491186694</v>
+        <v>1609.311838210098</v>
       </c>
       <c r="R18">
-        <v>12607.04947120164</v>
+        <v>9655.871029260587</v>
       </c>
       <c r="S18">
-        <v>0.07328950999026515</v>
+        <v>0.07091337408925978</v>
       </c>
       <c r="T18">
-        <v>0.05659866786809943</v>
+        <v>0.05296292155090651</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H19">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I19">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J19">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N19">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O19">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P19">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q19">
-        <v>567.15279158265</v>
+        <v>517.2126837013956</v>
       </c>
       <c r="R19">
-        <v>3402.9167494959</v>
+        <v>3103.276102208373</v>
       </c>
       <c r="S19">
-        <v>0.01978243217637259</v>
+        <v>0.0227906709266615</v>
       </c>
       <c r="T19">
-        <v>0.01527721100226263</v>
+        <v>0.01702162013701327</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H20">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I20">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J20">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N20">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O20">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P20">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q20">
-        <v>1223.317874503305</v>
+        <v>613.7836082092373</v>
       </c>
       <c r="R20">
-        <v>4893.271498013221</v>
+        <v>2455.134432836949</v>
       </c>
       <c r="S20">
-        <v>0.04266963548742272</v>
+        <v>0.02704601158418559</v>
       </c>
       <c r="T20">
-        <v>0.02196807817222676</v>
+        <v>0.0134665316023002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H21">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I21">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J21">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N21">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O21">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P21">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q21">
-        <v>540.4442883315002</v>
+        <v>481.102099971866</v>
       </c>
       <c r="R21">
-        <v>3242.665729989001</v>
+        <v>2886.612599831196</v>
       </c>
       <c r="S21">
-        <v>0.0188508328579175</v>
+        <v>0.02119947941747473</v>
       </c>
       <c r="T21">
-        <v>0.01455777270313372</v>
+        <v>0.01583321030380676</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H22">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I22">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J22">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N22">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O22">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P22">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q22">
-        <v>0.9094701059524444</v>
+        <v>0.3087746983357778</v>
       </c>
       <c r="R22">
-        <v>8.185230953572001</v>
+        <v>2.778972285022</v>
       </c>
       <c r="S22">
-        <v>3.172254629521779E-05</v>
+        <v>1.360597441247727E-05</v>
       </c>
       <c r="T22">
-        <v>3.674715239463176E-05</v>
+        <v>1.524279794932538E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H23">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I23">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J23">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>97.972082</v>
       </c>
       <c r="O23">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P23">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q23">
-        <v>7.413786932251556</v>
+        <v>5.027644217780889</v>
       </c>
       <c r="R23">
-        <v>66.724082390264</v>
+        <v>45.248797960028</v>
       </c>
       <c r="S23">
-        <v>0.0002585947549479195</v>
+        <v>0.0002215401681253618</v>
       </c>
       <c r="T23">
-        <v>0.0002995541650436863</v>
+        <v>0.0002481918544031442</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H24">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I24">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J24">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N24">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O24">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P24">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q24">
-        <v>2.001142280482222</v>
+        <v>1.615821928872667</v>
       </c>
       <c r="R24">
-        <v>18.01028052434</v>
+        <v>14.542397359854</v>
       </c>
       <c r="S24">
-        <v>6.980034661989693E-05</v>
+        <v>7.120023738296624E-05</v>
       </c>
       <c r="T24">
-        <v>8.085618192717849E-05</v>
+        <v>7.976575579748991E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H25">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I25">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J25">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N25">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O25">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P25">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q25">
-        <v>4.316355587895334</v>
+        <v>1.917518740317</v>
       </c>
       <c r="R25">
-        <v>25.898133527372</v>
+        <v>11.505112441902</v>
       </c>
       <c r="S25">
-        <v>0.0001505555697405094</v>
+        <v>8.449432889681729E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001162682720701425</v>
+        <v>6.310610051110796E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H26">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I26">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J26">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N26">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O26">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P26">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q26">
-        <v>1.906903980155556</v>
+        <v>1.503009008978667</v>
       </c>
       <c r="R26">
-        <v>17.1621358214</v>
+        <v>13.527081080808</v>
       </c>
       <c r="S26">
-        <v>6.65132909758144E-05</v>
+        <v>6.622920280744071E-05</v>
       </c>
       <c r="T26">
-        <v>7.704848207992681E-05</v>
+        <v>7.419669669619105E-05</v>
       </c>
     </row>
   </sheetData>
